--- a/outputs-HGR-r202/test-f__UBA11471_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__UBA11471_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Row</t>
   </si>
@@ -253,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -263,14 +263,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,19 +293,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -311,8 +315,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -322,8 +326,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -333,8 +337,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -344,8 +348,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -355,8 +359,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -366,8 +370,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -377,8 +381,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -388,8 +392,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -399,8 +403,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -410,8 +414,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -421,8 +425,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -432,8 +436,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -443,8 +447,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -454,8 +458,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -465,8 +469,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -476,8 +480,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -487,8 +491,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -498,8 +502,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -509,8 +513,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -520,8 +524,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -531,8 +535,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -542,8 +546,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -553,8 +557,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -564,8 +568,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -575,8 +579,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -586,8 +590,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -597,8 +601,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -608,8 +612,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -619,8 +623,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -630,8 +634,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -641,8 +645,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -652,8 +656,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -663,8 +667,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -674,8 +678,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -685,8 +689,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -696,8 +700,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -707,8 +711,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -718,8 +722,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -729,8 +733,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -740,8 +744,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -751,8 +755,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -762,8 +766,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -773,8 +777,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -784,8 +788,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -795,8 +799,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -806,8 +810,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -817,8 +821,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B49">
         <v>1</v>

--- a/outputs-HGR-r202/test-f__UBA11471_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__UBA11471_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="73">
   <si>
     <t>Row</t>
   </si>
@@ -253,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -265,16 +265,60 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,539 +337,539 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>835.48620326669732</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1576.4875985552612</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1382.1247821994502</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>693.43944255604345</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>414.17993758808427</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1073.984582067711</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1087.2550726490408</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1449.7952368372971</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1461.7028012062365</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1368.9372938921833</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>560.81588309826191</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>866.65777416710478</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1091.034961154854</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1241.3564406664591</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1094.9224792947966</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1434.0312733787327</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1348.1129838616648</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>967.64202542249257</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1104.9682616793971</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1192.2799554201802</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>763.90717499404639</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>630.85284971858925</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1002.2424530331774</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1067.6859614233381</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1057.032077994611</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1020.5943747048021</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>859.92753095953947</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1602.4938891961151</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2202.2989072968899</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>1077.2506549555092</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>778.96561817374356</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1034.6312653651671</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>763.90717499404639</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>1015.0765697978503</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>955.44179674076861</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>774.73426707945157</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>545.10755269981053</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>1290.2743697095643</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>1061.8245185210567</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1183.6824599718029</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>1477.9921132435165</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1050.8417411569353</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>819.50087517755298</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>732.10325558332272</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1146.4411937469572</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1202.1231470571361</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>717.14145715391794</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>872.58070814039013</v>
       </c>
       <c r="C49">
         <v>1</v>

--- a/outputs-HGR-r202/test-f__UBA11471_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__UBA11471_split_pruned.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>even_MAG-GUT10153.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT10562.fa</t>
   </si>
   <si>
@@ -31,39 +28,21 @@
     <t>even_MAG-GUT11308.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT11426.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT12051.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT13150.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT13451.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT14705.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT14711.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT1694.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT19155.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT19423.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT20126.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT20461.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT22619.fa</t>
   </si>
   <si>
@@ -73,12 +52,6 @@
     <t>even_MAG-GUT2867.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT31002.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT31540.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT317.fa</t>
   </si>
   <si>
@@ -91,9 +64,6 @@
     <t>even_MAG-GUT33329.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT35871.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT35943.fa</t>
   </si>
   <si>
@@ -112,9 +82,6 @@
     <t>even_MAG-GUT40221.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT42780.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT43251.fa</t>
   </si>
   <si>
@@ -127,18 +94,9 @@
     <t>even_MAG-GUT45263.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT45396.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT45670.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46167.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT46378.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT47205.fa</t>
   </si>
   <si>
@@ -163,9 +121,6 @@
     <t>even_MAG-GUT66701.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT68072.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT68311.fa</t>
   </si>
   <si>
@@ -178,33 +133,21 @@
     <t>even_MAG-GUT722.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT72293.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT72929.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT80330.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT81123.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT81409.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT81646.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT81936.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT82089.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT82177.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT82314.fa</t>
   </si>
   <si>
@@ -214,16 +157,7 @@
     <t>even_MAG-GUT82505.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT82571.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT838.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT84166.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT84304.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT86112.fa</t>
@@ -253,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,62 +197,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,7 +214,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -337,19 +223,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>72</v>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>835.48620326669732</v>
@@ -359,8 +245,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1576.4875985552612</v>
@@ -370,8 +256,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1382.1247821994502</v>
@@ -381,8 +267,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>693.43944255604345</v>
@@ -392,8 +278,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>414.17993758808427</v>
@@ -403,8 +289,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>10</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1073.984582067711</v>
@@ -414,8 +300,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>12</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1087.2550726490408</v>
@@ -425,8 +311,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1449.7952368372971</v>
@@ -436,8 +322,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1461.7028012062365</v>
@@ -447,8 +333,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
-        <v>17</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1368.9372938921833</v>
@@ -458,8 +344,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
-        <v>18</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>560.81588309826191</v>
@@ -469,8 +355,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="s">
-        <v>21</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>866.65777416710478</v>
@@ -480,8 +366,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
-        <v>22</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1091.034961154854</v>
@@ -491,8 +377,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
-        <v>23</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1241.3564406664591</v>
@@ -502,8 +388,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1094.9224792947966</v>
@@ -513,8 +399,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
-        <v>26</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1434.0312733787327</v>
@@ -524,8 +410,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
-        <v>27</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1348.1129838616648</v>
@@ -535,8 +421,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
-        <v>28</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>967.64202542249257</v>
@@ -546,8 +432,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
-        <v>29</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1104.9682616793971</v>
@@ -557,8 +443,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
-        <v>30</v>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1192.2799554201802</v>
@@ -568,8 +454,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
-        <v>31</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>763.90717499404639</v>
@@ -579,8 +465,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
-        <v>33</v>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>630.85284971858925</v>
@@ -590,8 +476,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
-        <v>34</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1002.2424530331774</v>
@@ -601,8 +487,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="s">
-        <v>35</v>
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1067.6859614233381</v>
@@ -612,8 +498,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="s">
-        <v>36</v>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1057.032077994611</v>
@@ -623,8 +509,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
-        <v>38</v>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1020.5943747048021</v>
@@ -634,8 +520,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
-        <v>41</v>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>859.92753095953947</v>
@@ -645,8 +531,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
-        <v>42</v>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1602.4938891961151</v>
@@ -656,8 +542,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
-        <v>43</v>
+      <c r="A30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2202.2989072968899</v>
@@ -667,8 +553,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
-        <v>44</v>
+      <c r="A31" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1077.2506549555092</v>
@@ -678,8 +564,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
-        <v>45</v>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>778.96561817374356</v>
@@ -689,8 +575,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="s">
-        <v>46</v>
+      <c r="A33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1034.6312653651671</v>
@@ -700,8 +586,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="s">
-        <v>47</v>
+      <c r="A34" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>763.90717499404639</v>
@@ -711,8 +597,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="s">
-        <v>48</v>
+      <c r="A35" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1015.0765697978503</v>
@@ -722,8 +608,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="s">
-        <v>50</v>
+      <c r="A36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B36">
         <v>955.44179674076861</v>
@@ -733,8 +619,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="s">
-        <v>51</v>
+      <c r="A37" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B37">
         <v>774.73426707945157</v>
@@ -744,8 +630,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="25" t="s">
-        <v>52</v>
+      <c r="A38" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B38">
         <v>545.10755269981053</v>
@@ -755,8 +641,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="s">
-        <v>53</v>
+      <c r="A39" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1290.2743697095643</v>
@@ -766,8 +652,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="25" t="s">
-        <v>55</v>
+      <c r="A40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1061.8245185210567</v>
@@ -777,8 +663,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
-        <v>57</v>
+      <c r="A41" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1183.6824599718029</v>
@@ -788,8 +674,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="25" t="s">
-        <v>58</v>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1477.9921132435165</v>
@@ -799,8 +685,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="25" t="s">
-        <v>60</v>
+      <c r="A43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1050.8417411569353</v>
@@ -810,8 +696,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
-        <v>61</v>
+      <c r="A44" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B44">
         <v>819.50087517755298</v>
@@ -821,8 +707,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
-        <v>63</v>
+      <c r="A45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B45">
         <v>732.10325558332272</v>
@@ -832,8 +718,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
-        <v>64</v>
+      <c r="A46" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1146.4411937469572</v>
@@ -843,8 +729,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="25" t="s">
-        <v>65</v>
+      <c r="A47" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1202.1231470571361</v>
@@ -854,8 +740,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="25" t="s">
-        <v>68</v>
+      <c r="A48" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B48">
         <v>717.14145715391794</v>
@@ -865,255 +751,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
-        <v>70</v>
+      <c r="A49" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B49">
         <v>872.58070814039013</v>
       </c>
       <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
         <v>1</v>
       </c>
     </row>
